--- a/7/2/4/Empresas no financieras 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/4/Empresas no financieras 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Serie</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2066,19 +2069,39 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C75">
         <v>14.9</v>
       </c>
       <c r="D75">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E75">
-        <v>-137.7</v>
+        <v>-138</v>
       </c>
       <c r="F75">
-        <v>120.6</v>
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>15.4</v>
+      </c>
+      <c r="C76">
+        <v>15.3</v>
+      </c>
+      <c r="D76">
+        <v>0.6</v>
+      </c>
+      <c r="E76">
+        <v>-127.8</v>
+      </c>
+      <c r="F76">
+        <v>113.3</v>
       </c>
     </row>
   </sheetData>
